--- a/results/pvalue_OFFSIDES_rare_enzyme_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_rare_enzyme_AUPR+AUROCperdrug.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.034</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12.278</t>
+          <t>15.941</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.274</t>
+          <t>16.3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.168</t>
+          <t>13.873</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.194</t>
+          <t>25.054</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.552</t>
+          <t>12.942</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
